--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_basic_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_basic_control_by_struct.xlsx
@@ -483,15 +483,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5494740290026675</v>
+        <v>-0.5423463153780721</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.632, -0.467]</t>
+          <t>[-0.625, -0.46]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.220123482843062e-38</v>
+        <v>1.162622380552874e-37</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +632,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6312401499795353</v>
+        <v>-0.6252845793359479</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.714, -0.548]</t>
+          <t>[-0.708, -0.542]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.513743135915038e-49</v>
+        <v>6.234059431553372e-49</v>
       </c>
     </row>
     <row r="4">
@@ -781,15 +781,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4278595958409114</v>
+        <v>-0.4218921108116627</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.506, -0.35]</t>
+          <t>[-0.5, -0.344]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.197372196330932e-26</v>
+        <v>6.485868346733748e-26</v>
       </c>
     </row>
     <row r="4">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4860364352947379</v>
+        <v>-0.4794117296103223</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.565, -0.407]</t>
+          <t>[-0.559, -0.4]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.770641076760995e-33</v>
+        <v>9.191596167842878e-32</v>
       </c>
     </row>
     <row r="4">
